--- a/kensho/real_trade.xlsx
+++ b/kensho/real_trade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
@@ -237,13 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018/4/16週</t>
-    <rPh sb="9" eb="10">
-      <t>シュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>反対に一回でも触れた場合はカウントをリセットするよう改修</t>
     <rPh sb="0" eb="2">
       <t>ハンタイ</t>
@@ -259,28 +252,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前日07:00～当日07:00までの値動きを見て、その方向についていく形</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンジツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウジツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ネウゴ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カタチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -296,16 +267,212 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>daytimeアルゴリズム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>08:00に時間決めでエントリーする</t>
-    <rPh sb="6" eb="8">
+    <t>ストップロス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01:33:12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22:20:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週末決済</t>
+    <rPh sb="0" eb="2">
+      <t>シュウマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15時ごろにはカウント2になっている。
+高値が近かったので、上昇した22時ごろにエントリーしたが、そこが天井だった</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高値の計算がおかしいので、天井が近いのにエントリーしてしまっていた</t>
+    <rPh sb="0" eb="2">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翌週から修正済み</t>
+    <rPh sb="0" eb="2">
+      <t>ヨクシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exceedの閾値を0.2にしたから回避できるはず
+　⇒翌週から稼動
+ボリンジャーバンドの閾値を2.5シグマにしても良いかもしれない</t>
+    <rPh sb="7" eb="9">
+      <t>シキイチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨクシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シキイチ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16時ごろにカウント2になっている
+安値に近かったため様子見。
+17時半ごろの指標で急落し、exceed閾値を超えたためエントリー。
+理想的</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヤスネ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヨウスミ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キュウラク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シキイチ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>リソウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完璧</t>
+    <rPh sb="0" eb="2">
+      <t>カンペキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/4/24週</t>
+    <rPh sb="9" eb="10">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/04/30週</t>
+    <rPh sb="10" eb="11">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Expantioアルゴリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高値安値の計算ロジックがおかしかったため修正</t>
+    <rPh sb="0" eb="2">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤスネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間足のslopeを考慮してたが、外した</t>
+    <rPh sb="1" eb="3">
       <t>ジカン</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>ギ</t>
+    <rPh sb="3" eb="4">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trailを0.5ずつついていくようになっていたが、0.3に修正</t>
+    <rPh sb="30" eb="32">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +562,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -805,68 +987,206 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>43214</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8">
+        <v>152.29599999999999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>43215</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="F13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="H13" s="8">
+        <v>-0.183</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A14" s="9">
+        <v>43216</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1.7372685185185185E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>152.5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>43216</v>
+      </c>
+      <c r="E14" s="12">
+        <v>8.1319444444444444E-2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8">
+        <v>-0.185</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>43217</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.72918981481481471</v>
+      </c>
+      <c r="C15" s="8">
+        <v>151.17400000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>43218</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
